--- a/indicadores/tablas/pob/430101_edad.xlsx
+++ b/indicadores/tablas/pob/430101_edad.xlsx
@@ -477,7 +477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3065,7 +3065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/pob/430101_edad.xlsx
+++ b/indicadores/tablas/pob/430101_edad.xlsx
@@ -123,13 +123,13 @@
     <t xml:space="preserve">NOMINDICADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual tienen derecho vigente</t>
+    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual tienen cobertura vigente</t>
   </si>
   <si>
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora en la cual tienen derecho vigente.</t>
+    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual tienen cobertura (derecho vigente según la pregunta específica de la ECH).</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>
@@ -477,7 +477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3065,7 +3065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/pob/430101_edad.xlsx
+++ b/indicadores/tablas/pob/430101_edad.xlsx
@@ -60,7 +60,7 @@
     <t xml:space="preserve">Más de un prestador</t>
   </si>
   <si>
-    <t xml:space="preserve">Sin derechos</t>
+    <t xml:space="preserve">Sin cobertura</t>
   </si>
   <si>
     <t xml:space="preserve">2007</t>
@@ -123,13 +123,13 @@
     <t xml:space="preserve">NOMINDICADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual tienen cobertura vigente</t>
+    <t xml:space="preserve">Distribución porcentual de personas según institución prestadora en la cual declaran tener cobertura vigente</t>
   </si>
   <si>
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual tienen cobertura (derecho vigente según la pregunta específica de la ECH).</t>
+    <t xml:space="preserve">El indicador refleja la distribución porcentual de personas según institución prestadora integral de salud en la cual declaran tener cobertura (derecho vigente según la pregunta específica de la ECH).</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>
